--- a/BackTest/2020-01-20 BackTest TRX.xlsx
+++ b/BackTest/2020-01-20 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-2423013.06505216</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2423013.06505216</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2441771.95925216</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2387570.66945216</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1971062.48185216</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1883519.98232013</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3025516.54905609</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3025516.54905609</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3271041.797856091</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3271041.797856091</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3529158.54085609</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3643717.872456091</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3643717.872456091</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3700908.118256091</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-4481809.634456091</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-4272063.71735609</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-4015435.15345609</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4015435.15345609</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3908657.36625609</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-4222207.437656091</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-4242207.437656091</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-4039287.437656091</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4031255.302556091</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3894879.271756091</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3894879.271756091</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4438142.943107441</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4016588.871754372</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4016588.871754372</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4022783.187754372</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-4022783.187754372</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4452671.249754372</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-4453314.174554372</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-4561133.102054372</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-4561133.102054372</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4566888.676854372</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-4577105.006854372</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-4577080.006854372</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-4622182.117254372</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-4656612.042654372</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-4651590.826954371</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-4349316.946154372</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-4350978.430354373</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-4350978.430354373</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-4350808.430354373</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-4352594.650354372</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-4352483.627514263</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-4352483.627514263</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-4356376.097514262</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-4356376.097514262</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-4356376.097514262</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-4392216.262614262</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-4296853.220314262</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-4295353.220314262</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-4295353.220314262</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4294663.029414263</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-4547992.542714262</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-4546328.653514262</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-4546328.653514262</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-4546528.653514262</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-4479679.014114263</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-4479679.014114263</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-4479679.014114263</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-4479679.014114263</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-4479679.014114263</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-4427364.283814263</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-4427364.283814263</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-4425364.283814263</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-4425364.283814263</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-4425364.283814263</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-4423170.687268233</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-3632662.265368233</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-3634958.187468233</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-3573353.060530673</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-3547753.060530673</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-3419333.246484433</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-3232020.268284434</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1909727.639984434</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2175869.375884434</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2148394.524984434</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1919741.641384434</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1919741.641384434</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1866741.641384434</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1811803.369779504</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1756494.154179504</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-2056269.597079504</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-2037439.890679504</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-2040315.339579504</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-2049059.062479504</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-2527921.133479504</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-2510290.838916974</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-2520352.112316974</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-2520352.112316974</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-2591661.278916974</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2521409.280916974</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-2531001.850916974</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-2530974.865316974</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-2568946.648416974</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-2568946.648416974</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-2568946.648416974</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-2561303.434516974</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-2566275.464516974</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-2566275.464516974</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-2566164.707126544</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-2566164.707126544</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-2569441.748626544</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-2902164.951826544</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-2951792.127626544</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-3035004.748526544</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-3058858.560226544</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-2932584.396826544</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-3429333.875426544</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-3429333.875426544</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-3404653.070026544</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-3404653.070026544</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-3357889.378126544</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-3172463.437626544</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2879501.852748384</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2879501.852748384</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2878087.014748384</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-2294824.346348384</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2294824.346348384</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-2292101.552048384</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-2292101.552048384</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2292101.552048384</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-2296578.696848384</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2296578.696848384</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2296578.696848384</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-2433431.371448384</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-2469548.627719884</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-2428145.493219884</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-2443450.349019884</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-2231427.833719884</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1867920.236919884</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1462065.283419884</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1686175.716219884</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1685974.913919884</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1693680.283419884</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1632146.742619884</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1380893.338329894</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1684474.956129894</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1907750.436329894</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-2177229.209029894</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-2311158.405729894</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-2102289.013429894</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-2102289.013429894</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-2021072.690429894</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-2150289.772904394</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-2150289.772904394</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-184274.2791943841</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-183405.3189943841</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-183405.3189943841</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-333303.0994943841</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-423154.8204943842</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-478981.0540943841</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-478981.0540943841</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-478981.0540943841</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-447679.3503100142</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-440994.7945100142</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1335166.779410014</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-2189800.069010014</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-2398716.324810014</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-2315265.072410014</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-2315240.072410014</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-2062824.456292304</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-1936368.925692305</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-565376.4179923045</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-593283.3779923045</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-602271.0797923045</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-597354.6493923046</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-593724.3593923046</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-738266.2416923046</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-960559.9298923046</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-957211.4298923046</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-967763.2598923045</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-968291.9603837045</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-822599.7486837045</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-823152.5906837045</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-758486.1545837044</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-798734.7021837045</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-806574.0366837045</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-773178.2851717145</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-738053.7798717145</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-744160.6692717145</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-740065.8592717145</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-256091.4948909145</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-259200.3148909145</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-100363.1409909145</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-100332.2953909145</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-267197.3779909145</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-297246.5180909145</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-286983.6637409645</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-356666.0168409646</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-321140.7387587245</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-345393.6621572445</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-345393.6621572445</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-309590.7682572445</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-306741.8378572445</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-306741.8378572445</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-306741.8378572445</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-577297.7590176545</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-577297.7590176545</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-561563.0806176545</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-561763.0806176545</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-542330.6058176545</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-1292330.837517655</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-1292305.837517655</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-1396331.880617654</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-1196091.880617654</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-1196157.711117654</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-1196157.711117654</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-1398341.567217654</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-1351494.815017654</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-1451734.279717654</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-832218.4425176543</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-832218.4425176543</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-832218.4425176543</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-852984.8270176543</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-842168.9508176543</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-848375.1308176543</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-862984.8346176543</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-1032892.209017654</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-1028991.119017654</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-1091930.538617654</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-2495062.527517654</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-2486062.527517654</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-1850494.660617654</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-1868424.546817654</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-547109.6142543739</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-392926.2247780339</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-392926.2247780339</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-476826.9267780339</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-379981.5819780339</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-379005.5890780339</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-387244.5643780339</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-387244.5643780339</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-379601.4667780339</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-379601.4667780339</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-379797.0432780339</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-379797.0432780339</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-391147.5835780339</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-376492.7417780339</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-380017.9417780339</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-337215.3529780339</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-337215.3529780339</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-372448.138878034</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-372448.138878034</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-284815.6189780339</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-991508.5713780338</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-971793.0245413538</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-1145862.902086454</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-1146973.195786454</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-1147111.399186454</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-1312020.784216953</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-738224.0704169535</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-738249.0704169535</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-353163.5883715837</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-530521.2832715837</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-520055.5708715837</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-520055.5708715837</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-520055.5708715837</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-520085.0549715837</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-520085.0549715837</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-336928.7698715837</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-341807.4495781837</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>926990.0300456563</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>916990.0300456563</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>914803.4097456563</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>978803.4097456563</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>998303.4097456563</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>886325.3699456563</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>722591.7770456562</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>302213.2311208162</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-346577.3510791837</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-41020.52297918376</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-38896.82297918377</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-157457.8723791838</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>14553.13312081623</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>1016929.809320816</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>1094821.265120816</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>1094821.265120816</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>589555.7069208163</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>734277.7025863663</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>591962.2191863663</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>538403.2992863663</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>579509.7302308163</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>328859.6465308163</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>335548.1684308163</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>561045.7631308163</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>553946.8021308163</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>625670.0351308163</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>625670.0351308163</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>683723.3792912663</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>683723.3792912663</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>627026.3189912663</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>633741.6782912663</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>630662.6217912664</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>630687.0120912663</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>627825.5346912664</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>627825.5346912664</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>564728.3300912664</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>564728.3300912664</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>561868.3300912664</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>561892.7560912664</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>561868.3419912664</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>402047.5748912664</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>374029.5041912664</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>374029.5041912664</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>344109.5218912664</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>344109.5218912664</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>554580.2510864565</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>342792.6237864565</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>342792.6237864565</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>270259.2278864565</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>110831.1516864565</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>148016.5469864565</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>155008.0259213465</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>140338.8156213465</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>139933.8353213465</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>139982.7112213465</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-2733.351378653519</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-47927.12517865352</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-44927.12517865352</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-188781.6760786535</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-137314.9260786535</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-137314.9260786535</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-165142.8320786535</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-165142.8320786535</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-178381.4045786535</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-165241.0666786535</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-213630.7119786535</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-213596.4485786535</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-296078.4485786535</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-296078.4485786535</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-296053.9746786535</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-296021.0930786535</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-296061.6577786535</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-296037.1958786535</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-396061.6577786535</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-395816.6577786535</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-475546.6136786535</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-414576.3195786535</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-406570.9278786535</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-412941.3732786535</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-412941.3732786535</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-267461.0529515136</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-267742.3029515136</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-219968.0311515136</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-264577.5043515136</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-264577.5043515136</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-264919.8705515136</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-221540.6547515136</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-361790.2797515136</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-359769.9097515136</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-455691.7729009936</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-428832.6741009936</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-435496.2714009936</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-434531.0414009937</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-434531.0414009937</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-439468.5814009936</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-439468.5814009936</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-439468.5814009936</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-518979.4902009936</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-612862.4150009936</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-612862.4150009936</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-612862.4150009936</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-412340.9150009936</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-402353.6114009937</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-402353.6114009937</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-402353.6114009937</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-665618.0183009936</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-662592.8706632036</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-683966.1005632037</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-683966.1005632037</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-42787.33365373366</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-42787.33365373366</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-55927.67155373366</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-55927.67155373366</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-55927.67155373366</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-112279.2611537336</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-131248.6192537337</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>586397.9805462663</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>586397.9805462663</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>585227.8211462663</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>585227.8211462663</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>665370.8210462662</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>603148.9972462662</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>618009.9793426362</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>612609.9793426362</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>228704.8340426362</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>228704.8340426362</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>229686.6700760162</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>202332.9128760162</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-217566.9374297837</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-218810.0528297838</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-218947.2701297837</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-218947.2701297837</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-213654.2801297838</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-213654.2801297838</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-229982.0526297837</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-871843.6331297838</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-1968881.504129784</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-3203745.631729783</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-5486979.358829783</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-6164084.541929783</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-8330556.892029783</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-8837430.494229782</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-9180367.707682632</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-9895019.217056653</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-9895019.217056653</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-13894428.21105665</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-15022205.12995665</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-15727589.70895665</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-15128955.32225749</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-15455030.53683928</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-16041263.18293928</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-15246372.42883928</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-14728143.94921901</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-14916986.79991901</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-15312020.49371901</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-15187448.31617126</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-15095859.60045</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-14713289.35955</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-15112922.6869875</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-15989098.03389902</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-15989098.03389902</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-19312592.31339902</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-19653522.65859902</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-19966828.93863277</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-20639237.06023277</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27379,11 +27379,17 @@
         <v>-31923587.07025228</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27412,11 +27418,17 @@
         <v>-31923587.07025228</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>18.46</v>
+      </c>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27445,11 +27457,17 @@
         <v>-31923587.07025228</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>18.46</v>
+      </c>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27478,11 +27496,17 @@
         <v>-31923587.07025228</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>18.46</v>
+      </c>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27511,11 +27535,17 @@
         <v>-32158128.88355255</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>18.46</v>
+      </c>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27544,7 +27574,7 @@
         <v>-32301847.55465255</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I823" t="n">
         <v>18.4</v>
@@ -27552,7 +27582,7 @@
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L823" t="n">
@@ -27583,7 +27613,7 @@
         <v>-32301847.55465255</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I824" t="n">
         <v>18.38</v>
@@ -27622,7 +27652,7 @@
         <v>-31931446.79772089</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I825" t="n">
         <v>18.38</v>
@@ -27698,11 +27728,9 @@
         <v>-31545381.61215283</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
-      </c>
-      <c r="I827" t="n">
-        <v>18.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -27737,9 +27765,11 @@
         <v>-31545381.61215283</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>18.6</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -27885,9 +27915,11 @@
         <v>-31534432.85973054</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>18.66</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -27922,9 +27954,11 @@
         <v>-30168229.96062477</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>18.62</v>
+      </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -29402,11 +29436,9 @@
         <v>-32582749.69168212</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
-      </c>
-      <c r="I873" t="n">
-        <v>18.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -29663,11 +29695,9 @@
         <v>-32740722.49318212</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
-      </c>
-      <c r="I880" t="n">
-        <v>18.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -29702,9 +29732,11 @@
         <v>-33150857.44490778</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -29739,9 +29771,11 @@
         <v>-33102809.69229826</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>18.39</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -29776,9 +29810,11 @@
         <v>-32997434.63359772</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -29850,9 +29886,11 @@
         <v>-32902219.59889772</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>18.49</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -29887,9 +29925,11 @@
         <v>-32790339.02989772</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -29924,9 +29964,11 @@
         <v>-32771170.74439772</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>18.53</v>
+      </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -29961,9 +30003,11 @@
         <v>-32972687.66649772</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>18.55</v>
+      </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -29998,7 +30042,7 @@
         <v>-32976306.19649772</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I889" t="n">
         <v>18.52</v>
@@ -30037,7 +30081,7 @@
         <v>-32798525.77839772</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I890" t="n">
         <v>18.51</v>
@@ -30076,11 +30120,9 @@
         <v>-32764872.08209772</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
-      </c>
-      <c r="I891" t="n">
-        <v>18.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -30115,11 +30157,9 @@
         <v>-32764872.08209772</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
-      </c>
-      <c r="I892" t="n">
-        <v>18.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -30487,11 +30527,9 @@
         <v>-34217141.80998649</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
-      </c>
-      <c r="I902" t="n">
-        <v>18.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -31355,6 +31393,6 @@
       <c r="M925" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest TRX.xlsx
+++ b/BackTest/2020-01-20 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-3455019.20265216</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2441771.95925216</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2387570.66945216</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3025516.54905609</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3025516.54905609</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3271041.797856091</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3271041.797856091</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3529158.54085609</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3643717.872456091</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3643717.872456091</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3700908.118256091</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-4481809.634456091</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3333763.75625609</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3483464.355156091</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3559250.15515609</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-4177065.74945609</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-4219554.529256091</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3955407.529256091</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-4108533.880356091</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-4124863.815956091</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-4121943.815956091</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-4146943.947156091</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4146943.947156091</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4185613.354756091</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-4185613.354756091</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-4185613.354756091</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-4075732.369956091</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3925857.05785609</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4031255.302556091</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3894879.271756091</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3894879.271756091</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3986633.272756091</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3983433.272756091</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3992097.473856091</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-4047197.166356091</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-4047197.166356091</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-4435009.971256091</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-4434982.985656091</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-4438982.985656091</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-4075562.985656091</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-4075971.612556091</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-4445480.905007442</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-4425480.905007442</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-4427080.905007442</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-4427080.905007442</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-4437080.905007442</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-4436697.849207441</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-4436697.849207441</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4438142.943107441</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4438142.943107441</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4420638.073707441</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-4420638.073707441</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-4420638.073707441</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-4431820.143707441</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-4431820.143707441</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-4616680.382107441</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-4615060.602107441</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-4549111.702107441</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-4549111.702107441</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-4549801.547407441</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-4524202.118407441</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-4524202.118407441</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-4615716.120407442</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-4408097.120407442</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-4512975.722207442</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-4335755.736707442</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-4335755.736707442</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-4389905.594107442</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-4390163.608707442</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-4373609.910643922</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-4040033.910643922</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-4041977.760643922</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3881045.879543922</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4684778.159443922</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4681733.831743922</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4663154.011743922</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-4663154.011743922</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4663154.011743922</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4092872.317343922</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4038770.903843922</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4016588.871754372</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-4064360.965054372</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4024356.747554372</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-4024356.747554372</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4022783.187754372</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-4022783.187754372</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4452671.249754372</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-4453314.174554372</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-4561133.102054372</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-4561133.102054372</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4566888.676854372</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-4577105.006854372</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-4577080.006854372</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-4577080.006854372</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-4622182.117254372</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-4654973.902654372</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-4656612.042654372</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-4656612.042654372</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-4659021.753854372</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-4334646.146554372</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-4334646.146554372</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-4356376.097514262</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-4356376.097514262</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-4392216.262614262</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-4296853.220314262</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-4295353.220314262</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-4295353.220314262</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4294663.029414263</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-4547992.542714262</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-4546328.653514262</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-4546328.653514262</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-4427364.283814263</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-4427364.283814263</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-4425364.283814263</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-4425364.283814263</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-4425364.283814263</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-3632662.265368233</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-3634958.187468233</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-3573353.060530673</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2175869.375884434</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-2510290.838916974</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-2520352.112316974</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-2520352.112316974</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-2591661.278916974</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2521409.280916974</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-2531001.850916974</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-2530974.865316974</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-2568946.648416974</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-2568946.648416974</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-2568946.648416974</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-2561303.434516974</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-2566275.464516974</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-2566275.464516974</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-2566164.707126544</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-2566164.707126544</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-2569441.748626544</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-3058858.560226544</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-2932584.396826544</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-3429333.875426544</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-3429333.875426544</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-3404653.070026544</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-3404653.070026544</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-3357889.378126544</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2879501.852748384</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2296578.696848384</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-2433431.371448384</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-2428145.493219884</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-2443450.349019884</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-2231427.833719884</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1867920.236919884</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1462065.283419884</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1686175.716219884</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1685974.913919884</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-2102289.013429894</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-2021072.690429894</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-2150289.772904394</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-2150289.772904394</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-184274.2791943841</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-183405.3189943841</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-183405.3189943841</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-2189800.069010014</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-2398716.324810014</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-2315265.072410014</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-2315240.072410014</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-565376.4179923045</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-960559.9298923046</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-957211.4298923046</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-967763.2598923045</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-968291.9603837045</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-822599.7486837045</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-823152.5906837045</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-758486.1545837044</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-798734.7021837045</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-806574.0366837045</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-353163.5883715837</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>302213.2311208162</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-346577.3510791837</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-41020.52297918376</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-38896.82297918377</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-157457.8723791838</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>14553.13312081623</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-5486979.358829783</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-6164084.541929783</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-8330556.892029783</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-8837430.494229782</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-9180367.707682632</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-9895019.217056653</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-9895019.217056653</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-13894428.21105665</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-15022205.12995665</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-15727589.70895665</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-15455030.53683928</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-16041263.18293928</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-15246372.42883928</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-14728143.94921901</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-14916986.79991901</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-15312020.49371901</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27346,11 +27346,17 @@
         <v>-31525515.61526146</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>18.42</v>
+      </c>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27379,15 +27385,13 @@
         <v>-31923587.07025228</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L818" t="n">
@@ -27418,11 +27422,9 @@
         <v>-31923587.07025228</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
-      </c>
-      <c r="I819" t="n">
-        <v>18.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -27457,11 +27459,9 @@
         <v>-31923587.07025228</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>18.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -27496,11 +27496,9 @@
         <v>-31923587.07025228</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>18.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -27535,11 +27533,9 @@
         <v>-32158128.88355255</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>18.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -27652,11 +27648,9 @@
         <v>-31931446.79772089</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
-      </c>
-      <c r="I825" t="n">
-        <v>18.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -27728,9 +27722,11 @@
         <v>-31545381.61215283</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>18.53</v>
+      </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -27765,11 +27761,9 @@
         <v>-31545381.61215283</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>18.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -27915,11 +27909,9 @@
         <v>-31534432.85973054</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>18.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -27954,11 +27946,9 @@
         <v>-30168229.96062477</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
-      </c>
-      <c r="I833" t="n">
-        <v>18.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -28215,18 +28205,16 @@
         <v>-31205132.7614653</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L840" t="n">
-        <v>1</v>
-      </c>
+      <c r="L840" t="inlineStr"/>
       <c r="M840" t="inlineStr"/>
     </row>
     <row r="841">
@@ -28252,15 +28240,11 @@
         <v>-31429829.1276653</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28289,15 +28273,11 @@
         <v>-31190313.50715711</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28326,15 +28306,11 @@
         <v>-31419243.46545711</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28367,11 +28343,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28404,11 +28376,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28437,15 +28405,11 @@
         <v>-30522600.67705711</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28474,15 +28438,11 @@
         <v>-30562942.0770571</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28511,15 +28471,11 @@
         <v>-31093443.50659043</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28548,15 +28504,11 @@
         <v>-31474423.36252603</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28585,15 +28537,11 @@
         <v>-31477238.91342603</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28622,15 +28570,11 @@
         <v>-31814493.14282604</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28659,15 +28603,11 @@
         <v>-31814493.14282604</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28696,15 +28636,11 @@
         <v>-31814493.14282604</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28737,11 +28673,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28770,15 +28702,11 @@
         <v>-31839484.42592604</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28807,15 +28735,11 @@
         <v>-32016973.01702604</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28844,15 +28768,11 @@
         <v>-32016973.01702604</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28881,15 +28801,11 @@
         <v>-33804790.51302604</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28918,15 +28834,11 @@
         <v>-33599794.55342603</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28955,15 +28867,11 @@
         <v>-33811354.66952603</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28992,15 +28900,11 @@
         <v>-32781031.24602603</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29029,15 +28933,11 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29066,15 +28966,11 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29103,15 +28999,11 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29140,15 +29032,11 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29177,15 +29065,11 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29214,15 +29098,11 @@
         <v>-32204255.16839499</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29251,15 +29131,11 @@
         <v>-32216023.62839499</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29288,15 +29164,11 @@
         <v>-32079041.10902695</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29325,15 +29197,11 @@
         <v>-32478230.78112695</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29362,15 +29230,11 @@
         <v>-32582749.69168212</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29399,15 +29263,11 @@
         <v>-32582749.69168212</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29436,15 +29296,11 @@
         <v>-32582749.69168212</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29477,11 +29333,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29514,11 +29366,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29547,13 +29395,15 @@
         <v>-33417626.32648212</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>18.44</v>
+      </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L876" t="n">
@@ -29584,9 +29434,11 @@
         <v>-34377169.80978212</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>18.37</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -29621,9 +29473,11 @@
         <v>-32816234.21218212</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>18.26</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -29658,9 +29512,11 @@
         <v>-32816234.21218212</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>18.35</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -29695,9 +29551,11 @@
         <v>-32740722.49318212</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>18.35</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -29849,9 +29707,11 @@
         <v>-32934438.03659772</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>18.47</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -30120,9 +29980,11 @@
         <v>-32764872.08209772</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>18.52</v>
+      </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -30157,9 +30019,11 @@
         <v>-32764872.08209772</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>18.59</v>
+      </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -30194,9 +30058,11 @@
         <v>-32380561.90249772</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>18.59</v>
+      </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -30231,9 +30097,11 @@
         <v>-32711297.60505581</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>18.64</v>
+      </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -30268,9 +30136,11 @@
         <v>-33010690.33829533</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>18.6</v>
+      </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -30305,9 +30175,11 @@
         <v>-34141006.16840449</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>18.59</v>
+      </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -30342,9 +30214,11 @@
         <v>-34297267.65180449</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>18.55</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -30379,9 +30253,11 @@
         <v>-34261500.73330449</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>18.53</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -30416,9 +30292,11 @@
         <v>-34261500.73330449</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>18.54</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -30453,9 +30331,11 @@
         <v>-34261500.73330449</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>18.54</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -30490,9 +30370,11 @@
         <v>-34210850.57998649</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>18.54</v>
+      </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -30527,9 +30409,11 @@
         <v>-34217141.80998649</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>18.66</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -30564,9 +30448,11 @@
         <v>-32798135.17658649</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>18.6</v>
+      </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -30601,18 +30487,16 @@
         <v>-33711919.66728649</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L904" t="n">
-        <v>1</v>
-      </c>
+      <c r="L904" t="inlineStr"/>
       <c r="M904" t="inlineStr"/>
     </row>
     <row r="905">
@@ -30638,15 +30522,11 @@
         <v>-33725275.20888648</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30675,15 +30555,11 @@
         <v>-33725103.66618648</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30712,15 +30588,11 @@
         <v>-33764842.47348648</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30749,15 +30621,11 @@
         <v>-33761662.40038648</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30790,11 +30658,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30823,15 +30687,15 @@
         <v>-33860310.11148648</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="J910" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30860,13 +30724,17 @@
         <v>-33821770.27698648</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="J911" t="n">
+        <v>18.55</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L911" t="n">
@@ -30897,13 +30765,17 @@
         <v>-33821770.27698648</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="J912" t="n">
+        <v>18.55</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L912" t="n">
@@ -30934,15 +30806,15 @@
         <v>-33821770.27698648</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="J913" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30971,13 +30843,17 @@
         <v>-33803471.46928648</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="J914" t="n">
+        <v>18.57</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L914" t="n">
@@ -31008,13 +30884,17 @@
         <v>-33803471.46928648</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="J915" t="n">
+        <v>18.57</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L915" t="n">
@@ -31045,15 +30925,15 @@
         <v>-33803471.46928648</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="J916" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31082,13 +30962,17 @@
         <v>-33331665.25008648</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="J917" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L917" t="n">
@@ -31119,10 +31003,14 @@
         <v>-33497021.87908648</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="J918" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31156,10 +31044,14 @@
         <v>-33469442.13208648</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="J919" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31193,10 +31085,14 @@
         <v>-33469442.13208648</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="J920" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31230,10 +31126,14 @@
         <v>-33467943.80178648</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="J921" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31267,10 +31167,14 @@
         <v>-33515923.51668648</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="J922" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31304,10 +31208,14 @@
         <v>-33880405.91328648</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="J923" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31341,10 +31249,14 @@
         <v>-33889799.53148647</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="J924" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31378,10 +31290,14 @@
         <v>-33971562.37908176</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="J925" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31393,6 +31309,6 @@
       <c r="M925" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest TRX.xlsx
+++ b/BackTest/2020-01-20 BackTest TRX.xlsx
@@ -484,7 +484,7 @@
         <v>-3455019.20265216</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2423013.06505216</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2423013.06505216</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1883519.98232013</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1815178.03086454</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1815178.03086454</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1775195.58248696</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1781045.58248696</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2148542.10718696</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-4272063.71735609</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-4015435.15345609</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4015435.15345609</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3908657.36625609</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-4222207.437656091</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-4242207.437656091</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-4039287.437656091</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3333763.75625609</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3483464.355156091</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3559250.15515609</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-4177065.74945609</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-4219554.529256091</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3955407.529256091</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-4108533.880356091</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-4124863.815956091</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-4121943.815956091</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-4146943.947156091</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4146943.947156091</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4185613.354756091</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-4185613.354756091</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-4185613.354756091</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-4075732.369956091</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3925857.05785609</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3986633.272756091</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3983433.272756091</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3992097.473856091</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-4047197.166356091</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-4047197.166356091</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-4435009.971256091</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-4434982.985656091</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-4438982.985656091</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-4075562.985656091</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-4075971.612556091</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-4445480.905007442</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-4425480.905007442</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-4427080.905007442</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-4427080.905007442</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-4437080.905007442</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-4436697.849207441</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-4436697.849207441</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4438142.943107441</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4438142.943107441</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4438142.943107441</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4420638.073707441</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-4420638.073707441</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-4420638.073707441</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-4431820.143707441</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-4431820.143707441</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-4616680.382107441</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-4615060.602107441</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-4549111.702107441</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-4549111.702107441</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-4549801.547407441</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-4524202.118407441</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-4524202.118407441</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-4615716.120407442</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-4408097.120407442</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-4512975.722207442</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-4335755.736707442</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-4335755.736707442</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-4389905.594107442</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-4390163.608707442</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-4373609.910643922</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-4040033.910643922</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-4041977.760643922</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3881045.879543922</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4684778.159443922</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4681733.831743922</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4663154.011743922</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-4663154.011743922</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4663154.011743922</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4092872.317343922</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4038770.903843922</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4016588.871754372</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-4064360.965054372</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4024356.747554372</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-4024356.747554372</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4022783.187754372</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-4022783.187754372</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4452671.249754372</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-4453314.174554372</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-4561133.102054372</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-4561133.102054372</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4566888.676854372</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-4577105.006854372</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-4577080.006854372</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-4577080.006854372</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-4622182.117254372</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-4654973.902654372</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-4656612.042654372</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-4656612.042654372</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-4659021.753854372</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-4651590.826954371</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-4349316.946154372</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-4334646.146554372</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-4334646.146554372</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-3232020.268284434</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1909727.639984434</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2175869.375884434</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2148394.524984434</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1919741.641384434</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1866741.641384434</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1811803.369779504</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1756494.154179504</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-2056269.597079504</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-2037439.890679504</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2879501.852748384</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-2292101.552048384</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2292101.552048384</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-2296578.696848384</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2296578.696848384</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2296578.696848384</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-2433431.371448384</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-2443450.349019884</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-2231427.833719884</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1867920.236919884</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1462065.283419884</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1686175.716219884</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1685974.913919884</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1693680.283419884</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1632146.742619884</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1380893.338329894</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1684474.956129894</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1907750.436329894</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-2177229.209029894</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-2151359.719329894</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-2311158.405729894</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-2102289.013429894</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-2102289.013429894</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-2021072.690429894</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-2150289.772904394</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-2150289.772904394</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-184274.2791943841</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-183405.3189943841</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-183405.3189943841</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-333303.0994943841</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-423154.8204943842</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-478981.0540943841</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-478981.0540943841</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-478981.0540943841</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-447679.3503100142</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-440994.7945100142</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-440994.7945100142</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-1124465.431610014</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-1124465.431610014</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-936638.3647100143</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-936638.3647100143</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1245430.699310014</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1335166.779410014</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1355166.779410014</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1345694.063610014</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1406877.360110014</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1429811.270110014</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-2189800.069010014</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-2398716.324810014</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-2398716.324810014</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-2796318.964810014</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-2062824.456292304</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-2079516.003392305</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-2079516.003392305</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-1936368.925692305</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-563254.4179923045</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-563254.4179923045</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-565376.4179923045</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-564868.4179923045</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-593283.3779923045</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-602271.0797923045</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-597354.6493923046</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-593724.3593923046</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-738266.2416923046</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-722098.3298923046</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-972098.3298923046</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-960559.9298923046</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-957211.4298923046</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-967763.2598923045</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-968291.9603837045</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-822599.7486837045</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-823152.5906837045</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-758486.1545837044</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-798734.7021837045</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-806574.0366837045</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-773178.2851717145</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-738053.7798717145</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-744160.6692717145</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-740065.8592717145</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-256091.4948909145</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-259200.3148909145</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-100363.1409909145</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-100332.2953909145</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-267197.3779909145</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-297246.5180909145</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-286983.6637409645</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-356666.0168409646</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-321140.7387587245</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-345393.6621572445</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-345393.6621572445</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-309590.7682572445</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-306741.8378572445</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-306741.8378572445</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-306741.8378572445</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-577297.7590176545</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-577297.7590176545</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-561563.0806176545</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-561763.0806176545</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-542330.6058176545</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-1292330.837517655</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-1292305.837517655</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-1396331.880617654</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-1196091.880617654</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-1196157.711117654</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-1196157.711117654</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-1398341.567217654</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-1351494.815017654</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-1451734.279717654</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-832218.4425176543</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-832218.4425176543</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-832218.4425176543</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-852984.8270176543</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-842168.9508176543</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-848375.1308176543</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-862984.8346176543</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-1032892.209017654</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-1028991.119017654</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-2495062.527517654</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-2486062.527517654</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-1868424.546817654</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-1868424.546817654</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-1833975.721129074</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-1858606.122929074</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-1113604.479376514</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-1113604.479376514</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-572422.9493765139</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-643552.3200765139</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-848378.8928765139</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-846380.8928765139</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-846318.0480765139</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-699366.2878543739</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-699366.2878543739</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-542497.521454374</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-547109.6142543739</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-547109.6142543739</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-393197.7301543739</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-393197.7301543739</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-392926.2247780339</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-392926.2247780339</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-476826.9267780339</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-379981.5819780339</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-379005.5890780339</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-387244.5643780339</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-387244.5643780339</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-379601.4667780339</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-379601.4667780339</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-379797.0432780339</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-379797.0432780339</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-391147.5835780339</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-376492.7417780339</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-380017.9417780339</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-337215.3529780339</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-337215.3529780339</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-372448.138878034</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-372448.138878034</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-284815.6189780339</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-991508.5713780338</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-971793.0245413538</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-1392442.119341354</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-1146081.039341354</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-1145862.902086454</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-1146973.195786454</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-1147111.399186454</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-1059957.177186454</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-1057491.521686454</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-1098286.639716954</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-1133734.407016953</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-1133734.407016953</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-1126834.307016953</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-1311563.425216954</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-738224.0704169535</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-738249.0704169535</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-731099.4873169535</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-2471023.623516954</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-2486763.131216954</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-2248031.804371584</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-2318864.911171584</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-353163.5883715837</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-530521.2832715837</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-520055.5708715837</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-520055.5708715837</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-520055.5708715837</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-520085.0549715837</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-520085.0549715837</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-336928.7698715837</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-336928.7698715837</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-341807.4495781837</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>926990.0300456563</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>916990.0300456563</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>914803.4097456563</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>1016929.809320816</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>1016929.809320816</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>1016929.809320816</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>1094821.265120816</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>1094821.265120816</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>589555.7069208163</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>538403.2992863663</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>579509.7302308163</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>335548.1684308163</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>561045.7631308163</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>553946.8021308163</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>625670.0351308163</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>625670.0351308163</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>683723.3792912663</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>683723.3792912663</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>627026.3189912663</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>633741.6782912663</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>630662.6217912664</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>630687.0120912663</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>627825.5346912664</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>627825.5346912664</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>564728.3300912664</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>564728.3300912664</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>561868.3300912664</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>561892.7560912664</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>561868.3419912664</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>402047.5748912664</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>374029.5041912664</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>374029.5041912664</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>344109.5218912664</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>344109.5218912664</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>554580.2510864565</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>342792.6237864565</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>342792.6237864565</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>270259.2278864565</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>110831.1516864565</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>148016.5469864565</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>155008.0259213465</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>140338.8156213465</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>139933.8353213465</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>139982.7112213465</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-2733.351378653519</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-47927.12517865352</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-44927.12517865352</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-188781.6760786535</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-137314.9260786535</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-137314.9260786535</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-165142.8320786535</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-165142.8320786535</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-178381.4045786535</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-165241.0666786535</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-213630.7119786535</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-213596.4485786535</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-296078.4485786535</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-296078.4485786535</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-296053.9746786535</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-296053.9746786535</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-296021.0930786535</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-296061.6577786535</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-296037.1958786535</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-396061.6577786535</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-395816.6577786535</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-475546.6136786535</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-414576.3195786535</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-406570.9278786535</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-414626.1332786535</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-384648.7730786535</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-398062.5730786535</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-398062.5730786535</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-397249.7340786535</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-397249.7340786535</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-397423.7340786535</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-397423.7340786535</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-397399.1510786535</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-412941.3732786535</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-412941.3732786535</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-412819.3801515136</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-412494.7934515136</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-412494.7934515136</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-267461.0529515136</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-267742.3029515136</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-219968.0311515136</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-264577.5043515136</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-264577.5043515136</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-264919.8705515136</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-221540.6547515136</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-361790.2797515136</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-359769.9097515136</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-455691.7729009936</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-428832.6741009936</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-435496.2714009936</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-434531.0414009937</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-434531.0414009937</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-439468.5814009936</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-439468.5814009936</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-439468.5814009936</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-518979.4902009936</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-612862.4150009936</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-612862.4150009936</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-612862.4150009936</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-412340.9150009936</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-412340.9150009936</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-412340.9150009936</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-402353.6114009937</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-402353.6114009937</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-402353.6114009937</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-665618.0183009936</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-662592.8706632036</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-683966.1005632037</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-683966.1005632037</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-615610.9587419537</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-625610.9587419537</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-346538.3552419537</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-42787.33365373366</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-42787.33365373366</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-42787.33365373366</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-55927.67155373366</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-55927.67155373366</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-55927.67155373366</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-112279.2611537336</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-131248.6192537337</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>586397.9805462663</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>586397.9805462663</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>585227.8211462663</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>585227.8211462663</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>665370.8210462662</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>603148.9972462662</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>618009.9793426362</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>612609.9793426362</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>228704.8340426362</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>228704.8340426362</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>229686.6700760162</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>202332.9128760162</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-217566.9374297837</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-218810.0528297838</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-218947.2701297837</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-218947.2701297837</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-213654.2801297838</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-213654.2801297838</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-229982.0526297837</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-871843.6331297838</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-15128955.32225749</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27346,17 +27346,11 @@
         <v>-31525515.61526146</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>18.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27389,11 +27383,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27426,11 +27416,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27463,11 +27449,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27500,11 +27482,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27537,11 +27515,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27570,17 +27544,11 @@
         <v>-32301847.55465255</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27609,17 +27577,11 @@
         <v>-32301847.55465255</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
-      </c>
-      <c r="I824" t="n">
-        <v>18.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27652,11 +27614,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27689,11 +27647,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27722,17 +27676,11 @@
         <v>-31545381.61215283</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>18.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27765,11 +27713,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27802,11 +27746,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27839,11 +27779,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27876,11 +27812,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27913,11 +27845,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27950,11 +27878,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27987,11 +27911,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28024,11 +27944,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28061,11 +27977,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28098,11 +28010,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28135,11 +28043,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28172,11 +28076,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28205,16 +28105,14 @@
         <v>-31205132.7614653</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="n">
+        <v>1</v>
+      </c>
       <c r="M840" t="inlineStr"/>
     </row>
     <row r="841">
@@ -28240,7 +28138,7 @@
         <v>-31429829.1276653</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28273,7 +28171,7 @@
         <v>-31190313.50715711</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28306,7 +28204,7 @@
         <v>-31419243.46545711</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28405,7 +28303,7 @@
         <v>-30522600.67705711</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28438,7 +28336,7 @@
         <v>-30562942.0770571</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28471,7 +28369,7 @@
         <v>-31093443.50659043</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28504,7 +28402,7 @@
         <v>-31474423.36252603</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28537,7 +28435,7 @@
         <v>-31477238.91342603</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28570,7 +28468,7 @@
         <v>-31814493.14282604</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28603,7 +28501,7 @@
         <v>-31814493.14282604</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28636,7 +28534,7 @@
         <v>-31814493.14282604</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28702,7 +28600,7 @@
         <v>-31839484.42592604</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28735,7 +28633,7 @@
         <v>-32016973.01702604</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28768,7 +28666,7 @@
         <v>-32016973.01702604</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28801,7 +28699,7 @@
         <v>-33804790.51302604</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28834,7 +28732,7 @@
         <v>-33599794.55342603</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28867,7 +28765,7 @@
         <v>-33811354.66952603</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28900,7 +28798,7 @@
         <v>-32781031.24602603</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28933,7 +28831,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28966,7 +28864,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28999,7 +28897,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -29032,7 +28930,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -29065,7 +28963,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29098,7 +28996,7 @@
         <v>-32204255.16839499</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29131,7 +29029,7 @@
         <v>-32216023.62839499</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29164,7 +29062,7 @@
         <v>-32079041.10902695</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29197,7 +29095,7 @@
         <v>-32478230.78112695</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29230,7 +29128,7 @@
         <v>-32582749.69168212</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29263,11 +29161,17 @@
         <v>-32582749.69168212</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>18.49</v>
+      </c>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29296,11 +29200,17 @@
         <v>-32582749.69168212</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>18.49</v>
+      </c>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29329,11 +29239,17 @@
         <v>-32692692.26798212</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>18.49</v>
+      </c>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29366,7 +29282,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29395,15 +29315,13 @@
         <v>-33417626.32648212</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
-      </c>
-      <c r="I876" t="n">
-        <v>18.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L876" t="n">
@@ -30292,11 +30210,9 @@
         <v>-34261500.73330449</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>18.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -30370,11 +30286,9 @@
         <v>-34210850.57998649</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>18.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -30409,11 +30323,9 @@
         <v>-34217141.80998649</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>18.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -30448,11 +30360,9 @@
         <v>-32798135.17658649</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>18.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -30487,16 +30397,18 @@
         <v>-33711919.66728649</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L904" t="inlineStr"/>
+      <c r="L904" t="n">
+        <v>1</v>
+      </c>
       <c r="M904" t="inlineStr"/>
     </row>
     <row r="905">
@@ -30522,11 +30434,15 @@
         <v>-33725275.20888648</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30555,11 +30471,15 @@
         <v>-33725103.66618648</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30588,11 +30508,15 @@
         <v>-33764842.47348648</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30621,11 +30545,15 @@
         <v>-33761662.40038648</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30658,7 +30586,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30687,15 +30619,15 @@
         <v>-33860310.11148648</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="J910" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="K910" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30724,17 +30656,13 @@
         <v>-33821770.27698648</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
-      </c>
-      <c r="I911" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="J911" t="n">
-        <v>18.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L911" t="n">
@@ -30770,12 +30698,10 @@
       <c r="I912" t="n">
         <v>18.57</v>
       </c>
-      <c r="J912" t="n">
-        <v>18.55</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L912" t="n">
@@ -30811,10 +30737,12 @@
       <c r="I913" t="n">
         <v>18.57</v>
       </c>
-      <c r="J913" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30848,12 +30776,10 @@
       <c r="I914" t="n">
         <v>18.57</v>
       </c>
-      <c r="J914" t="n">
-        <v>18.57</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L914" t="n">
@@ -30889,12 +30815,10 @@
       <c r="I915" t="n">
         <v>18.58</v>
       </c>
-      <c r="J915" t="n">
-        <v>18.57</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L915" t="n">
@@ -30930,10 +30854,12 @@
       <c r="I916" t="n">
         <v>18.58</v>
       </c>
-      <c r="J916" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30967,12 +30893,10 @@
       <c r="I917" t="n">
         <v>18.58</v>
       </c>
-      <c r="J917" t="n">
-        <v>18.58</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L917" t="n">
@@ -31008,9 +30932,7 @@
       <c r="I918" t="n">
         <v>18.6</v>
       </c>
-      <c r="J918" t="n">
-        <v>18.58</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31049,9 +30971,7 @@
       <c r="I919" t="n">
         <v>18.59</v>
       </c>
-      <c r="J919" t="n">
-        <v>18.58</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31090,9 +31010,7 @@
       <c r="I920" t="n">
         <v>18.6</v>
       </c>
-      <c r="J920" t="n">
-        <v>18.58</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31131,9 +31049,7 @@
       <c r="I921" t="n">
         <v>18.6</v>
       </c>
-      <c r="J921" t="n">
-        <v>18.58</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31172,9 +31088,7 @@
       <c r="I922" t="n">
         <v>18.63</v>
       </c>
-      <c r="J922" t="n">
-        <v>18.58</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31213,9 +31127,7 @@
       <c r="I923" t="n">
         <v>18.62</v>
       </c>
-      <c r="J923" t="n">
-        <v>18.58</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31254,9 +31166,7 @@
       <c r="I924" t="n">
         <v>18.59</v>
       </c>
-      <c r="J924" t="n">
-        <v>18.58</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31295,9 +31205,7 @@
       <c r="I925" t="n">
         <v>18.58</v>
       </c>
-      <c r="J925" t="n">
-        <v>18.58</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
